--- a/_src/Sizes.xlsx
+++ b/_src/Sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\martin\dev\games\EmulationStation-DE\.emulationstation\themes\mochico\_src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73BA23B-EAB5-4AEE-8371-596447A4C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC29ECED-45E7-4E6B-A7D4-6F915637F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{A4AB701A-3A3C-4759-B48E-BD397EEEDDAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Width</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Bottom bar</t>
   </si>
   <si>
-    <t>System select</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -105,6 +102,54 @@
   </si>
   <si>
     <t>Systems: System name</t>
+  </si>
+  <si>
+    <t>Games: content</t>
+  </si>
+  <si>
+    <t>Games: menu</t>
+  </si>
+  <si>
+    <t>Screen content</t>
+  </si>
+  <si>
+    <t>Games: menu content</t>
+  </si>
+  <si>
+    <t>Systems: Content</t>
+  </si>
+  <si>
+    <t>Games: system logo</t>
+  </si>
+  <si>
+    <t>Games: system logo content</t>
+  </si>
+  <si>
+    <t>Games: list</t>
+  </si>
+  <si>
+    <t>Games: art</t>
+  </si>
+  <si>
+    <t>Games: background</t>
+  </si>
+  <si>
+    <t>Games: art outer</t>
+  </si>
+  <si>
+    <t>Games: art inner</t>
+  </si>
+  <si>
+    <t>Games: badge row</t>
+  </si>
+  <si>
+    <t>Games: year</t>
+  </si>
+  <si>
+    <t>Games: badges</t>
+  </si>
+  <si>
+    <t>Games: controller</t>
   </si>
 </sst>
 </file>
@@ -483,15 +528,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3FF608-5182-4557-A86C-D36BC12E2478}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
@@ -535,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -589,7 +634,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -602,25 +647,25 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K9" si="0">_xlfn.CONCAT(ROUND($B3/$B$2,5)," ",ROUND($C3/$C$2,5))</f>
+        <f t="shared" ref="K3:K10" si="0">_xlfn.CONCAT(ROUND($B3/$B$2,5)," ",ROUND($C3/$C$2,5))</f>
         <v>0.00781 0.0125</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L9" si="1">_xlfn.CONCAT(ROUND($D3/$B$2,5)," ",ROUND($E3/$C$2,5))</f>
+        <f t="shared" ref="L3:L10" si="1">_xlfn.CONCAT(ROUND($D3/$B$2,5)," ",ROUND($E3/$C$2,5))</f>
         <v>0 0</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M9" si="2">_xlfn.CONCAT(ROUND($F3/$B$2,5)," ",ROUND($G3/$C$2,5))</f>
+        <f t="shared" ref="M3:M10" si="2">_xlfn.CONCAT(ROUND($F3/$B$2,5)," ",ROUND($G3/$C$2,5))</f>
         <v>0 0</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N9" si="3">_xlfn.CONCAT(ROUND($H3/$B$2,5)," ",ROUND($I3/$C$2,5))</f>
+        <f t="shared" ref="N3:N10" si="3">_xlfn.CONCAT(ROUND($H3/$B$2,5)," ",ROUND($I3/$C$2,5))</f>
         <v>0 0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <f>$B$3*2</f>
@@ -653,7 +698,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <f>$B$3*4</f>
@@ -738,62 +783,30 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f>$B$2</f>
+        <v>1280</v>
+      </c>
+      <c r="C8">
+        <f>$C$2-$C$7</f>
+        <v>760</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
-        <v>0 0</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>0 0</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="2"/>
-        <v>0 0</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="3"/>
-        <v>0 0</v>
+        <v>1 0.95</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <f>$B$2</f>
-        <v>1280</v>
-      </c>
-      <c r="C9">
-        <f>$C2-$C$7</f>
-        <v>760</v>
-      </c>
-      <c r="D9" s="2">
-        <f>$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>$E$2</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <f>$D9+$B9/2</f>
-        <v>640</v>
-      </c>
-      <c r="G9" s="1">
-        <f>$E9+$C9/2</f>
-        <v>380</v>
-      </c>
-      <c r="H9" s="1">
-        <f>$D9+$B9</f>
-        <v>1280</v>
-      </c>
-      <c r="I9" s="1">
-        <f>$E9+$C9</f>
-        <v>760</v>
-      </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
-        <v>1 0.95</v>
+        <v>0 0</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
@@ -801,72 +814,72 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
-        <v>0.5 0.475</v>
+        <v>0 0</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="3"/>
-        <v>1 0.95</v>
+        <v>0 0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <f>($B$9-$B$3*2-$B$4)/2</f>
-        <v>620</v>
+        <f>$B$2</f>
+        <v>1280</v>
       </c>
       <c r="C10">
-        <f>$C$7-($C$3*2)</f>
-        <v>20</v>
+        <f>$C2-$C$7</f>
+        <v>760</v>
       </c>
       <c r="D10" s="2">
-        <f>$D$11+$B$11+$B$4</f>
-        <v>650</v>
-      </c>
-      <c r="E10" s="2">
-        <f>$E$7+$C$3</f>
-        <v>770</v>
+        <f>$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>$E$2</f>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <f>$D10+$B10/2</f>
-        <v>960</v>
+        <v>640</v>
       </c>
       <c r="G10" s="1">
         <f>$E10+$C10/2</f>
-        <v>780</v>
+        <v>380</v>
       </c>
       <c r="H10" s="1">
         <f>$D10+$B10</f>
-        <v>1270</v>
+        <v>1280</v>
       </c>
       <c r="I10" s="1">
         <f>$E10+$C10</f>
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="K10" t="str">
-        <f>_xlfn.CONCAT(ROUND($B10/$B$2,5)," ",ROUND($C10/$C$2,5))</f>
-        <v>0.48438 0.025</v>
+        <f t="shared" si="0"/>
+        <v>1 0.95</v>
       </c>
       <c r="L10" t="str">
-        <f>_xlfn.CONCAT(ROUND($D10/$B$2,5)," ",ROUND($E10/$C$2,5))</f>
-        <v>0.50781 0.9625</v>
+        <f t="shared" si="1"/>
+        <v>0 0</v>
       </c>
       <c r="M10" t="str">
-        <f>_xlfn.CONCAT(ROUND($F10/$B$2,5)," ",ROUND($G10/$C$2,5))</f>
-        <v>0.75 0.975</v>
+        <f t="shared" si="2"/>
+        <v>0.5 0.475</v>
       </c>
       <c r="N10" t="str">
-        <f>_xlfn.CONCAT(ROUND($H10/$B$2,5)," ",ROUND($I10/$C$2,5))</f>
-        <v>0.99219 0.9875</v>
+        <f t="shared" si="3"/>
+        <v>1 0.95</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <f>$B$7-$B$10-$B$3*2-$B$4</f>
+        <f>($B$10-$B$3*2-$B$4)/2</f>
         <v>620</v>
       </c>
       <c r="C11">
@@ -874,8 +887,8 @@
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <f>$D$7+$B$3</f>
-        <v>10</v>
+        <f>$D$12+$B$12+$B$4</f>
+        <v>650</v>
       </c>
       <c r="E11" s="2">
         <f>$E$7+$C$3</f>
@@ -883,7 +896,7 @@
       </c>
       <c r="F11" s="1">
         <f>$D11+$B11/2</f>
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="G11" s="1">
         <f>$E11+$C11/2</f>
@@ -891,7 +904,7 @@
       </c>
       <c r="H11" s="1">
         <f>$D11+$B11</f>
-        <v>630</v>
+        <v>1270</v>
       </c>
       <c r="I11" s="1">
         <f>$E11+$C11</f>
@@ -903,120 +916,899 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT(ROUND($D11/$B$2,5)," ",ROUND($E11/$C$2,5))</f>
-        <v>0.00781 0.9625</v>
+        <v>0.50781 0.9625</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT(ROUND($F11/$B$2,5)," ",ROUND($G11/$C$2,5))</f>
-        <v>0.25 0.975</v>
+        <v>0.75 0.975</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT(ROUND($H11/$B$2,5)," ",ROUND($I11/$C$2,5))</f>
+        <v>0.99219 0.9875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <f>$B$7-$B$11-$B$3*2-$B$4</f>
+        <v>620</v>
+      </c>
+      <c r="C12">
+        <f>$C$7-($C$3*2)</f>
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <f>$D$7+$B$3</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="2">
+        <f>$E$7+$C$3</f>
+        <v>770</v>
+      </c>
+      <c r="F12" s="1">
+        <f>$D12+$B12/2</f>
+        <v>320</v>
+      </c>
+      <c r="G12" s="1">
+        <f>$E12+$C12/2</f>
+        <v>780</v>
+      </c>
+      <c r="H12" s="1">
+        <f>$D12+$B12</f>
+        <v>630</v>
+      </c>
+      <c r="I12" s="1">
+        <f>$E12+$C12</f>
+        <v>790</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT(ROUND($B12/$B$2,5)," ",ROUND($C12/$C$2,5))</f>
+        <v>0.48438 0.025</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT(ROUND($D12/$B$2,5)," ",ROUND($E12/$C$2,5))</f>
+        <v>0.00781 0.9625</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT(ROUND($F12/$B$2,5)," ",ROUND($G12/$C$2,5))</f>
+        <v>0.25 0.975</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT(ROUND($H12/$B$2,5)," ",ROUND($I12/$C$2,5))</f>
         <v>0.49219 0.9875</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <f>$B$2-$B$4*2</f>
+        <v>1240</v>
+      </c>
+      <c r="C14">
+        <f>$C$8-$C$4*2</f>
+        <v>720</v>
+      </c>
+      <c r="D14">
+        <f>$B$4</f>
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="E14">
+        <f>$C$4</f>
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F22" si="4">$D14+$B14/2</f>
+        <v>640</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:G22" si="5">$E14+$C14/2</f>
+        <v>380</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H22" si="6">$D14+$B14</f>
+        <v>1260</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14:I22" si="7">$E14+$C14</f>
+        <v>740</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" ref="K14:K22" si="8">_xlfn.CONCAT(ROUND($B14/$B$2,5)," ",ROUND($C14/$C$2,5))</f>
+        <v>0.96875 0.9</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" ref="L14:L22" si="9">_xlfn.CONCAT(ROUND($D14/$B$2,5)," ",ROUND($E14/$C$2,5))</f>
+        <v>0.01563 0.025</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" ref="M14:M22" si="10">_xlfn.CONCAT(ROUND($F14/$B$2,5)," ",ROUND($G14/$C$2,5))</f>
+        <v>0.5 0.475</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" ref="N14:N22" si="11">_xlfn.CONCAT(ROUND($H14/$B$2,5)," ",ROUND($I14/$C$2,5))</f>
+        <v>0.98438 0.925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f>$B$16+$B$4*2</f>
+        <v>540</v>
+      </c>
+      <c r="C15">
+        <f>$C$14</f>
+        <v>720</v>
+      </c>
+      <c r="D15">
+        <f>$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>$E$2</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="7"/>
+        <v>720</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="8"/>
+        <v>0.42188 0.9</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="9"/>
+        <v>0 0</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="10"/>
+        <v>0.21094 0.45</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="11"/>
+        <v>0.42188 0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>500</v>
+      </c>
+      <c r="C16">
+        <f>$C$15-$C$4*2</f>
+        <v>680</v>
+      </c>
+      <c r="D16">
+        <f>$B$4</f>
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <f>$C$4</f>
+        <v>20</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="8"/>
+        <v>0.39063 0.85</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="9"/>
+        <v>0.01563 0.025</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="10"/>
+        <v>0.21094 0.45</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="11"/>
+        <v>0.40625 0.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <f>$B$16</f>
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f>$D$16</f>
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <f>$E$16</f>
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="8"/>
+        <v>0.39063 0.125</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="9"/>
+        <v>0.01563 0.025</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="10"/>
+        <v>0.21094 0.0875</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="11"/>
+        <v>0.40625 0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f>$B$17-$B$4*6</f>
+        <v>380</v>
+      </c>
+      <c r="C18">
+        <f>$C$17-$C$3*2</f>
+        <v>80</v>
+      </c>
+      <c r="F18" s="2">
+        <f>$F$17</f>
+        <v>270</v>
+      </c>
+      <c r="G18" s="2">
+        <f>$G$17</f>
+        <v>70</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="8"/>
+        <v>0.29688 0.1</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="9"/>
+        <v>0 0</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="10"/>
+        <v>0.21094 0.0875</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="11"/>
+        <v>0.29688 0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <f>$B$16</f>
+        <v>500</v>
+      </c>
+      <c r="C19">
+        <f>$C$16-$C$17</f>
+        <v>580</v>
+      </c>
+      <c r="D19">
+        <f>$D$16</f>
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <f>$E$16+$C$17</f>
+        <v>120</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="5"/>
+        <v>410</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="8"/>
+        <v>0.39063 0.725</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="9"/>
+        <v>0.01563 0.15</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="10"/>
+        <v>0.21094 0.5125</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="11"/>
+        <v>0.40625 0.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <f>$B$14-$B$16</f>
+        <v>740</v>
+      </c>
+      <c r="C20">
+        <f>$C$14-$C$5*2</f>
+        <v>640</v>
+      </c>
+      <c r="D20">
+        <f>$D$16+$B$16</f>
+        <v>520</v>
+      </c>
+      <c r="E20">
+        <f>$E$14+$C$5</f>
+        <v>60</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="4"/>
+        <v>890</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="6"/>
+        <v>1260</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="7"/>
+        <v>700</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="8"/>
+        <v>0.57813 0.8</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="9"/>
+        <v>0.40625 0.075</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="10"/>
+        <v>0.69531 0.475</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="11"/>
+        <v>0.98438 0.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <f>$B$20-$B$4*2</f>
+        <v>700</v>
+      </c>
+      <c r="C21">
+        <f>$C$20-$C$4*2</f>
+        <v>600</v>
+      </c>
+      <c r="D21">
+        <f>$D$20+$B$4</f>
+        <v>540</v>
+      </c>
+      <c r="E21">
+        <f>$E$20+$C$4</f>
+        <v>80</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
+        <v>890</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="6"/>
+        <v>1240</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="7"/>
+        <v>680</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="8"/>
+        <v>0.54688 0.75</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="9"/>
+        <v>0.42188 0.1</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="10"/>
+        <v>0.69531 0.475</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="11"/>
+        <v>0.96875 0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <f>$B$21</f>
+        <v>700</v>
+      </c>
+      <c r="C22">
+        <f>ROUND($B22/4*3,0)</f>
+        <v>525</v>
+      </c>
+      <c r="D22">
+        <f>$D$21</f>
+        <v>540</v>
+      </c>
+      <c r="E22">
+        <f>$E$21</f>
+        <v>80</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
+        <v>890</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="5"/>
+        <v>342.5</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="6"/>
+        <v>1240</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="7"/>
+        <v>605</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="8"/>
+        <v>0.54688 0.65625</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="9"/>
+        <v>0.42188 0.1</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="10"/>
+        <v>0.69531 0.42813</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="11"/>
+        <v>0.96875 0.75625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
         <f>IF($C$2=800,880,IF($C$2=720,805,"???"))</f>
         <v>880</v>
       </c>
-      <c r="C13">
+      <c r="C23">
         <f>$C$7-($C$3*2)</f>
         <v>20</v>
       </c>
-      <c r="D13" s="2">
-        <f>$D$14+$B$14+$B$4</f>
+      <c r="D23" s="2">
+        <f>$D$29+$B$29+$B$4</f>
         <v>390</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E23" s="2">
         <f>$E$7+$C$3</f>
         <v>770</v>
       </c>
-      <c r="F13" s="1">
-        <f>$D13+$B13/2</f>
+      <c r="F23" s="1">
+        <f>$D23+$B23/2</f>
         <v>830</v>
       </c>
-      <c r="G13" s="1">
-        <f>$E13+$C13/2</f>
+      <c r="G23" s="1">
+        <f>$E23+$C23/2</f>
         <v>780</v>
       </c>
-      <c r="H13" s="1">
-        <f>$D13+$B13</f>
+      <c r="H23" s="1">
+        <f>$D23+$B23</f>
         <v>1270</v>
       </c>
-      <c r="I13" s="1">
-        <f>$E13+$C13</f>
+      <c r="I23" s="1">
+        <f>$E23+$C23</f>
         <v>790</v>
       </c>
-      <c r="K13" t="str">
-        <f>_xlfn.CONCAT(ROUND($B13/$B$2,5)," ",ROUND($C13/$C$2,5))</f>
+      <c r="K23" t="str">
+        <f>_xlfn.CONCAT(ROUND($B23/$B$2,5)," ",ROUND($C23/$C$2,5))</f>
         <v>0.6875 0.025</v>
       </c>
-      <c r="L13" t="str">
-        <f>_xlfn.CONCAT(ROUND($D13/$B$2,5)," ",ROUND($E13/$C$2,5))</f>
+      <c r="L23" t="str">
+        <f>_xlfn.CONCAT(ROUND($D23/$B$2,5)," ",ROUND($E23/$C$2,5))</f>
         <v>0.30469 0.9625</v>
       </c>
-      <c r="M13" t="str">
-        <f>_xlfn.CONCAT(ROUND($F13/$B$2,5)," ",ROUND($G13/$C$2,5))</f>
+      <c r="M23" t="str">
+        <f>_xlfn.CONCAT(ROUND($F23/$B$2,5)," ",ROUND($G23/$C$2,5))</f>
         <v>0.64844 0.975</v>
       </c>
-      <c r="N13" t="str">
-        <f>_xlfn.CONCAT(ROUND($H13/$B$2,5)," ",ROUND($I13/$C$2,5))</f>
+      <c r="N23" t="str">
+        <f>_xlfn.CONCAT(ROUND($H23/$B$2,5)," ",ROUND($I23/$C$2,5))</f>
         <v>0.99219 0.9875</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <f>$B$7-$B$13-$B$3*2-$B$4</f>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <f>$B$21</f>
+        <v>700</v>
+      </c>
+      <c r="C24">
+        <f>$C$21-$C$22-$C$5</f>
+        <v>35</v>
+      </c>
+      <c r="D24" s="2">
+        <f>$D$21</f>
+        <v>540</v>
+      </c>
+      <c r="E24" s="2">
+        <f>$E$21+$C$21-$C24</f>
+        <v>645</v>
+      </c>
+      <c r="F24" s="1">
+        <f>$D24+$B24/2</f>
+        <v>890</v>
+      </c>
+      <c r="G24" s="1">
+        <f>$E24+$C24/2</f>
+        <v>662.5</v>
+      </c>
+      <c r="H24" s="1">
+        <f>$D24+$B24</f>
+        <v>1240</v>
+      </c>
+      <c r="I24" s="1">
+        <f>$E24+$C24</f>
+        <v>680</v>
+      </c>
+      <c r="K24" t="str">
+        <f>_xlfn.CONCAT(ROUND($B24/$B$2,5)," ",ROUND($C24/$C$2,5))</f>
+        <v>0.54688 0.04375</v>
+      </c>
+      <c r="L24" t="str">
+        <f>_xlfn.CONCAT(ROUND($D24/$B$2,5)," ",ROUND($E24/$C$2,5))</f>
+        <v>0.42188 0.80625</v>
+      </c>
+      <c r="M24" t="str">
+        <f>_xlfn.CONCAT(ROUND($F24/$B$2,5)," ",ROUND($G24/$C$2,5))</f>
+        <v>0.69531 0.82813</v>
+      </c>
+      <c r="N24" t="str">
+        <f>_xlfn.CONCAT(ROUND($H24/$B$2,5)," ",ROUND($I24/$C$2,5))</f>
+        <v>0.96875 0.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <f>ROUND($B$24/3,0)</f>
+        <v>233</v>
+      </c>
+      <c r="C25">
+        <f>$C$24</f>
+        <v>35</v>
+      </c>
+      <c r="D25" s="2">
+        <f>$D$24</f>
+        <v>540</v>
+      </c>
+      <c r="E25" s="2">
+        <f>$E$24</f>
+        <v>645</v>
+      </c>
+      <c r="F25" s="1">
+        <f>$D25+$B25/2</f>
+        <v>656.5</v>
+      </c>
+      <c r="G25" s="1">
+        <f>$E25+$C25/2</f>
+        <v>662.5</v>
+      </c>
+      <c r="H25" s="1">
+        <f>$D25+$B25</f>
+        <v>773</v>
+      </c>
+      <c r="I25" s="1">
+        <f>$E25+$C25</f>
+        <v>680</v>
+      </c>
+      <c r="K25" t="str">
+        <f>_xlfn.CONCAT(ROUND($B25/$B$2,5)," ",ROUND($C25/$C$2,5))</f>
+        <v>0.18203 0.04375</v>
+      </c>
+      <c r="L25" t="str">
+        <f>_xlfn.CONCAT(ROUND($D25/$B$2,5)," ",ROUND($E25/$C$2,5))</f>
+        <v>0.42188 0.80625</v>
+      </c>
+      <c r="M25" t="str">
+        <f>_xlfn.CONCAT(ROUND($F25/$B$2,5)," ",ROUND($G25/$C$2,5))</f>
+        <v>0.51289 0.82813</v>
+      </c>
+      <c r="N25" t="str">
+        <f>_xlfn.CONCAT(ROUND($H25/$B$2,5)," ",ROUND($I25/$C$2,5))</f>
+        <v>0.60391 0.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <f>ROUND($B$24/3,0)</f>
+        <v>233</v>
+      </c>
+      <c r="C26">
+        <f>$C$24</f>
+        <v>35</v>
+      </c>
+      <c r="D26" s="2">
+        <f>$H$24-$B26</f>
+        <v>1007</v>
+      </c>
+      <c r="E26" s="2">
+        <f>$E$24</f>
+        <v>645</v>
+      </c>
+      <c r="F26" s="1">
+        <f>$D26+$B26/2</f>
+        <v>1123.5</v>
+      </c>
+      <c r="G26" s="1">
+        <f>$E26+$C26/2</f>
+        <v>662.5</v>
+      </c>
+      <c r="H26" s="1">
+        <f>$D26+$B26</f>
+        <v>1240</v>
+      </c>
+      <c r="I26" s="1">
+        <f>$E26+$C26</f>
+        <v>680</v>
+      </c>
+      <c r="K26" t="str">
+        <f>_xlfn.CONCAT(ROUND($B26/$B$2,5)," ",ROUND($C26/$C$2,5))</f>
+        <v>0.18203 0.04375</v>
+      </c>
+      <c r="L26" t="str">
+        <f>_xlfn.CONCAT(ROUND($D26/$B$2,5)," ",ROUND($E26/$C$2,5))</f>
+        <v>0.78672 0.80625</v>
+      </c>
+      <c r="M26" t="str">
+        <f>_xlfn.CONCAT(ROUND($F26/$B$2,5)," ",ROUND($G26/$C$2,5))</f>
+        <v>0.87773 0.82813</v>
+      </c>
+      <c r="N26" t="str">
+        <f>_xlfn.CONCAT(ROUND($H26/$B$2,5)," ",ROUND($I26/$C$2,5))</f>
+        <v>0.96875 0.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <f>ROUND($B$24/3,0)</f>
+        <v>233</v>
+      </c>
+      <c r="C27">
+        <f>$C$24</f>
+        <v>35</v>
+      </c>
+      <c r="D27" s="2">
+        <f>$F$24-$B27/2</f>
+        <v>773.5</v>
+      </c>
+      <c r="E27" s="2">
+        <f>$E$24</f>
+        <v>645</v>
+      </c>
+      <c r="F27" s="1">
+        <f>$D27+$B27/2</f>
+        <v>890</v>
+      </c>
+      <c r="G27" s="1">
+        <f>$E27+$C27/2</f>
+        <v>662.5</v>
+      </c>
+      <c r="H27" s="1">
+        <f>$D27+$B27</f>
+        <v>1006.5</v>
+      </c>
+      <c r="I27" s="1">
+        <f>$E27+$C27</f>
+        <v>680</v>
+      </c>
+      <c r="K27" t="str">
+        <f>_xlfn.CONCAT(ROUND($B27/$B$2,5)," ",ROUND($C27/$C$2,5))</f>
+        <v>0.18203 0.04375</v>
+      </c>
+      <c r="L27" t="str">
+        <f>_xlfn.CONCAT(ROUND($D27/$B$2,5)," ",ROUND($E27/$C$2,5))</f>
+        <v>0.6043 0.80625</v>
+      </c>
+      <c r="M27" t="str">
+        <f>_xlfn.CONCAT(ROUND($F27/$B$2,5)," ",ROUND($G27/$C$2,5))</f>
+        <v>0.69531 0.82813</v>
+      </c>
+      <c r="N27" t="str">
+        <f>_xlfn.CONCAT(ROUND($H27/$B$2,5)," ",ROUND($I27/$C$2,5))</f>
+        <v>0.78633 0.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <f>$B$21-$B$5*2</f>
+        <v>620</v>
+      </c>
+      <c r="C28">
+        <f>$C$21-$C$5*2</f>
+        <v>520</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1">
+        <f>$D28+$B28/2</f>
+        <v>310</v>
+      </c>
+      <c r="G28" s="1">
+        <f>$E28+$C28/2</f>
+        <v>260</v>
+      </c>
+      <c r="H28" s="1">
+        <f>$D28+$B28</f>
+        <v>620</v>
+      </c>
+      <c r="I28" s="1">
+        <f>$E28+$C28</f>
+        <v>520</v>
+      </c>
+      <c r="K28" t="str">
+        <f>_xlfn.CONCAT(ROUND($B28/$B$2,5)," ",ROUND($C28/$C$2,5))</f>
+        <v>0.48438 0.65</v>
+      </c>
+      <c r="L28" t="str">
+        <f>_xlfn.CONCAT(ROUND($D28/$B$2,5)," ",ROUND($E28/$C$2,5))</f>
+        <v>0 0</v>
+      </c>
+      <c r="M28" t="str">
+        <f>_xlfn.CONCAT(ROUND($F28/$B$2,5)," ",ROUND($G28/$C$2,5))</f>
+        <v>0.24219 0.325</v>
+      </c>
+      <c r="N28" t="str">
+        <f>_xlfn.CONCAT(ROUND($H28/$B$2,5)," ",ROUND($I28/$C$2,5))</f>
+        <v>0.48438 0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <f>$B$7-$B$23-$B$3*2-$B$4</f>
         <v>360</v>
       </c>
-      <c r="C14">
+      <c r="C29">
         <f>$C$7-($C$3*2)</f>
         <v>20</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D29" s="2">
         <f>$D$7+$B$3</f>
         <v>10</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E29" s="2">
         <f>$E$7+$C$3</f>
         <v>770</v>
       </c>
-      <c r="F14" s="1">
-        <f>$D14+$B14/2</f>
+      <c r="F29" s="1">
+        <f>$D29+$B29/2</f>
         <v>190</v>
       </c>
-      <c r="G14" s="1">
-        <f>$E14+$C14/2</f>
+      <c r="G29" s="1">
+        <f>$E29+$C29/2</f>
         <v>780</v>
       </c>
-      <c r="H14" s="1">
-        <f>$D14+$B14</f>
+      <c r="H29" s="1">
+        <f>$D29+$B29</f>
         <v>370</v>
       </c>
-      <c r="I14" s="1">
-        <f>$E14+$C14</f>
+      <c r="I29" s="1">
+        <f>$E29+$C29</f>
         <v>790</v>
       </c>
-      <c r="K14" t="str">
-        <f>_xlfn.CONCAT(ROUND($B14/$B$2,5)," ",ROUND($C14/$C$2,5))</f>
+      <c r="K29" t="str">
+        <f>_xlfn.CONCAT(ROUND($B29/$B$2,5)," ",ROUND($C29/$C$2,5))</f>
         <v>0.28125 0.025</v>
       </c>
-      <c r="L14" t="str">
-        <f>_xlfn.CONCAT(ROUND($D14/$B$2,5)," ",ROUND($E14/$C$2,5))</f>
+      <c r="L29" t="str">
+        <f>_xlfn.CONCAT(ROUND($D29/$B$2,5)," ",ROUND($E29/$C$2,5))</f>
         <v>0.00781 0.9625</v>
       </c>
-      <c r="M14" t="str">
-        <f>_xlfn.CONCAT(ROUND($F14/$B$2,5)," ",ROUND($G14/$C$2,5))</f>
+      <c r="M29" t="str">
+        <f>_xlfn.CONCAT(ROUND($F29/$B$2,5)," ",ROUND($G29/$C$2,5))</f>
         <v>0.14844 0.975</v>
       </c>
-      <c r="N14" t="str">
-        <f>_xlfn.CONCAT(ROUND($H14/$B$2,5)," ",ROUND($I14/$C$2,5))</f>
+      <c r="N29" t="str">
+        <f>_xlfn.CONCAT(ROUND($H29/$B$2,5)," ",ROUND($I29/$C$2,5))</f>
         <v>0.28906 0.9875</v>
       </c>
     </row>

--- a/_src/Sizes.xlsx
+++ b/_src/Sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\martin\dev\games\EmulationStation-DE\.emulationstation\themes\mochico\_src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC29ECED-45E7-4E6B-A7D4-6F915637F559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A745179-20B6-4962-AC8D-9A4821D3C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{A4AB701A-3A3C-4759-B48E-BD397EEEDDAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Width</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Games: controller</t>
+  </si>
+  <si>
+    <t>Games: title</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3FF608-5182-4557-A86C-D36BC12E2478}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1463,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="2">
-        <f>$D$29+$B$29+$B$4</f>
+        <f>$D$30+$B$30+$B$4</f>
         <v>390</v>
       </c>
       <c r="E23" s="2">
@@ -1468,35 +1471,35 @@
         <v>770</v>
       </c>
       <c r="F23" s="1">
-        <f>$D23+$B23/2</f>
+        <f t="shared" ref="F23:F30" si="12">$D23+$B23/2</f>
         <v>830</v>
       </c>
       <c r="G23" s="1">
-        <f>$E23+$C23/2</f>
+        <f t="shared" ref="G23:G30" si="13">$E23+$C23/2</f>
         <v>780</v>
       </c>
       <c r="H23" s="1">
-        <f>$D23+$B23</f>
+        <f t="shared" ref="H23:H30" si="14">$D23+$B23</f>
         <v>1270</v>
       </c>
       <c r="I23" s="1">
-        <f>$E23+$C23</f>
+        <f t="shared" ref="I23:I30" si="15">$E23+$C23</f>
         <v>790</v>
       </c>
       <c r="K23" t="str">
-        <f>_xlfn.CONCAT(ROUND($B23/$B$2,5)," ",ROUND($C23/$C$2,5))</f>
+        <f t="shared" ref="K23:K30" si="16">_xlfn.CONCAT(ROUND($B23/$B$2,5)," ",ROUND($C23/$C$2,5))</f>
         <v>0.6875 0.025</v>
       </c>
       <c r="L23" t="str">
-        <f>_xlfn.CONCAT(ROUND($D23/$B$2,5)," ",ROUND($E23/$C$2,5))</f>
+        <f t="shared" ref="L23:L30" si="17">_xlfn.CONCAT(ROUND($D23/$B$2,5)," ",ROUND($E23/$C$2,5))</f>
         <v>0.30469 0.9625</v>
       </c>
       <c r="M23" t="str">
-        <f>_xlfn.CONCAT(ROUND($F23/$B$2,5)," ",ROUND($G23/$C$2,5))</f>
+        <f t="shared" ref="M23:M30" si="18">_xlfn.CONCAT(ROUND($F23/$B$2,5)," ",ROUND($G23/$C$2,5))</f>
         <v>0.64844 0.975</v>
       </c>
       <c r="N23" t="str">
-        <f>_xlfn.CONCAT(ROUND($H23/$B$2,5)," ",ROUND($I23/$C$2,5))</f>
+        <f t="shared" ref="N23:N30" si="19">_xlfn.CONCAT(ROUND($H23/$B$2,5)," ",ROUND($I23/$C$2,5))</f>
         <v>0.99219 0.9875</v>
       </c>
     </row>
@@ -1521,35 +1524,35 @@
         <v>645</v>
       </c>
       <c r="F24" s="1">
-        <f>$D24+$B24/2</f>
+        <f t="shared" si="12"/>
         <v>890</v>
       </c>
       <c r="G24" s="1">
-        <f>$E24+$C24/2</f>
+        <f t="shared" si="13"/>
         <v>662.5</v>
       </c>
       <c r="H24" s="1">
-        <f>$D24+$B24</f>
+        <f t="shared" si="14"/>
         <v>1240</v>
       </c>
       <c r="I24" s="1">
-        <f>$E24+$C24</f>
+        <f t="shared" si="15"/>
         <v>680</v>
       </c>
       <c r="K24" t="str">
-        <f>_xlfn.CONCAT(ROUND($B24/$B$2,5)," ",ROUND($C24/$C$2,5))</f>
+        <f t="shared" si="16"/>
         <v>0.54688 0.04375</v>
       </c>
       <c r="L24" t="str">
-        <f>_xlfn.CONCAT(ROUND($D24/$B$2,5)," ",ROUND($E24/$C$2,5))</f>
+        <f t="shared" si="17"/>
         <v>0.42188 0.80625</v>
       </c>
       <c r="M24" t="str">
-        <f>_xlfn.CONCAT(ROUND($F24/$B$2,5)," ",ROUND($G24/$C$2,5))</f>
+        <f t="shared" si="18"/>
         <v>0.69531 0.82813</v>
       </c>
       <c r="N24" t="str">
-        <f>_xlfn.CONCAT(ROUND($H24/$B$2,5)," ",ROUND($I24/$C$2,5))</f>
+        <f t="shared" si="19"/>
         <v>0.96875 0.85</v>
       </c>
     </row>
@@ -1574,35 +1577,35 @@
         <v>645</v>
       </c>
       <c r="F25" s="1">
-        <f>$D25+$B25/2</f>
+        <f t="shared" si="12"/>
         <v>656.5</v>
       </c>
       <c r="G25" s="1">
-        <f>$E25+$C25/2</f>
+        <f t="shared" si="13"/>
         <v>662.5</v>
       </c>
       <c r="H25" s="1">
-        <f>$D25+$B25</f>
+        <f t="shared" si="14"/>
         <v>773</v>
       </c>
       <c r="I25" s="1">
-        <f>$E25+$C25</f>
+        <f t="shared" si="15"/>
         <v>680</v>
       </c>
       <c r="K25" t="str">
-        <f>_xlfn.CONCAT(ROUND($B25/$B$2,5)," ",ROUND($C25/$C$2,5))</f>
+        <f t="shared" si="16"/>
         <v>0.18203 0.04375</v>
       </c>
       <c r="L25" t="str">
-        <f>_xlfn.CONCAT(ROUND($D25/$B$2,5)," ",ROUND($E25/$C$2,5))</f>
+        <f t="shared" si="17"/>
         <v>0.42188 0.80625</v>
       </c>
       <c r="M25" t="str">
-        <f>_xlfn.CONCAT(ROUND($F25/$B$2,5)," ",ROUND($G25/$C$2,5))</f>
+        <f t="shared" si="18"/>
         <v>0.51289 0.82813</v>
       </c>
       <c r="N25" t="str">
-        <f>_xlfn.CONCAT(ROUND($H25/$B$2,5)," ",ROUND($I25/$C$2,5))</f>
+        <f t="shared" si="19"/>
         <v>0.60391 0.85</v>
       </c>
     </row>
@@ -1627,35 +1630,35 @@
         <v>645</v>
       </c>
       <c r="F26" s="1">
-        <f>$D26+$B26/2</f>
+        <f t="shared" si="12"/>
         <v>1123.5</v>
       </c>
       <c r="G26" s="1">
-        <f>$E26+$C26/2</f>
+        <f t="shared" si="13"/>
         <v>662.5</v>
       </c>
       <c r="H26" s="1">
-        <f>$D26+$B26</f>
+        <f t="shared" si="14"/>
         <v>1240</v>
       </c>
       <c r="I26" s="1">
-        <f>$E26+$C26</f>
+        <f t="shared" si="15"/>
         <v>680</v>
       </c>
       <c r="K26" t="str">
-        <f>_xlfn.CONCAT(ROUND($B26/$B$2,5)," ",ROUND($C26/$C$2,5))</f>
+        <f t="shared" si="16"/>
         <v>0.18203 0.04375</v>
       </c>
       <c r="L26" t="str">
-        <f>_xlfn.CONCAT(ROUND($D26/$B$2,5)," ",ROUND($E26/$C$2,5))</f>
+        <f t="shared" si="17"/>
         <v>0.78672 0.80625</v>
       </c>
       <c r="M26" t="str">
-        <f>_xlfn.CONCAT(ROUND($F26/$B$2,5)," ",ROUND($G26/$C$2,5))</f>
+        <f t="shared" si="18"/>
         <v>0.87773 0.82813</v>
       </c>
       <c r="N26" t="str">
-        <f>_xlfn.CONCAT(ROUND($H26/$B$2,5)," ",ROUND($I26/$C$2,5))</f>
+        <f t="shared" si="19"/>
         <v>0.96875 0.85</v>
       </c>
     </row>
@@ -1680,35 +1683,35 @@
         <v>645</v>
       </c>
       <c r="F27" s="1">
-        <f>$D27+$B27/2</f>
+        <f t="shared" si="12"/>
         <v>890</v>
       </c>
       <c r="G27" s="1">
-        <f>$E27+$C27/2</f>
+        <f t="shared" si="13"/>
         <v>662.5</v>
       </c>
       <c r="H27" s="1">
-        <f>$D27+$B27</f>
+        <f t="shared" si="14"/>
         <v>1006.5</v>
       </c>
       <c r="I27" s="1">
-        <f>$E27+$C27</f>
+        <f t="shared" si="15"/>
         <v>680</v>
       </c>
       <c r="K27" t="str">
-        <f>_xlfn.CONCAT(ROUND($B27/$B$2,5)," ",ROUND($C27/$C$2,5))</f>
+        <f t="shared" si="16"/>
         <v>0.18203 0.04375</v>
       </c>
       <c r="L27" t="str">
-        <f>_xlfn.CONCAT(ROUND($D27/$B$2,5)," ",ROUND($E27/$C$2,5))</f>
+        <f t="shared" si="17"/>
         <v>0.6043 0.80625</v>
       </c>
       <c r="M27" t="str">
-        <f>_xlfn.CONCAT(ROUND($F27/$B$2,5)," ",ROUND($G27/$C$2,5))</f>
+        <f t="shared" si="18"/>
         <v>0.69531 0.82813</v>
       </c>
       <c r="N27" t="str">
-        <f>_xlfn.CONCAT(ROUND($H27/$B$2,5)," ",ROUND($I27/$C$2,5))</f>
+        <f t="shared" si="19"/>
         <v>0.78633 0.85</v>
       </c>
     </row>
@@ -1727,88 +1730,140 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1">
-        <f>$D28+$B28/2</f>
+        <f t="shared" si="12"/>
         <v>310</v>
       </c>
       <c r="G28" s="1">
-        <f>$E28+$C28/2</f>
+        <f t="shared" si="13"/>
         <v>260</v>
       </c>
       <c r="H28" s="1">
-        <f>$D28+$B28</f>
+        <f t="shared" si="14"/>
         <v>620</v>
       </c>
       <c r="I28" s="1">
-        <f>$E28+$C28</f>
+        <f t="shared" si="15"/>
         <v>520</v>
       </c>
       <c r="K28" t="str">
-        <f>_xlfn.CONCAT(ROUND($B28/$B$2,5)," ",ROUND($C28/$C$2,5))</f>
+        <f t="shared" si="16"/>
         <v>0.48438 0.65</v>
       </c>
       <c r="L28" t="str">
-        <f>_xlfn.CONCAT(ROUND($D28/$B$2,5)," ",ROUND($E28/$C$2,5))</f>
+        <f t="shared" si="17"/>
         <v>0 0</v>
       </c>
       <c r="M28" t="str">
-        <f>_xlfn.CONCAT(ROUND($F28/$B$2,5)," ",ROUND($G28/$C$2,5))</f>
+        <f t="shared" si="18"/>
         <v>0.24219 0.325</v>
       </c>
       <c r="N28" t="str">
-        <f>_xlfn.CONCAT(ROUND($H28/$B$2,5)," ",ROUND($I28/$C$2,5))</f>
+        <f t="shared" si="19"/>
         <v>0.48438 0.65</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <f>$B$21</f>
+        <v>700</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2">
+        <f>$D$21</f>
+        <v>540</v>
+      </c>
+      <c r="E29" s="2">
+        <f>$E$21</f>
+        <v>80</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="12"/>
+        <v>890</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="14"/>
+        <v>1240</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="15"/>
+        <v>180</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="16"/>
+        <v>0.54688 0.125</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="17"/>
+        <v>0.42188 0.1</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="18"/>
+        <v>0.69531 0.1625</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="19"/>
+        <v>0.96875 0.225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <f>$B$7-$B$23-$B$3*2-$B$4</f>
         <v>360</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <f>$C$7-($C$3*2)</f>
         <v>20</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <f>$D$7+$B$3</f>
         <v>10</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="2">
         <f>$E$7+$C$3</f>
         <v>770</v>
       </c>
-      <c r="F29" s="1">
-        <f>$D29+$B29/2</f>
+      <c r="F30" s="1">
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
-      <c r="G29" s="1">
-        <f>$E29+$C29/2</f>
+      <c r="G30" s="1">
+        <f t="shared" si="13"/>
         <v>780</v>
       </c>
-      <c r="H29" s="1">
-        <f>$D29+$B29</f>
+      <c r="H30" s="1">
+        <f t="shared" si="14"/>
         <v>370</v>
       </c>
-      <c r="I29" s="1">
-        <f>$E29+$C29</f>
+      <c r="I30" s="1">
+        <f t="shared" si="15"/>
         <v>790</v>
       </c>
-      <c r="K29" t="str">
-        <f>_xlfn.CONCAT(ROUND($B29/$B$2,5)," ",ROUND($C29/$C$2,5))</f>
+      <c r="K30" t="str">
+        <f t="shared" si="16"/>
         <v>0.28125 0.025</v>
       </c>
-      <c r="L29" t="str">
-        <f>_xlfn.CONCAT(ROUND($D29/$B$2,5)," ",ROUND($E29/$C$2,5))</f>
+      <c r="L30" t="str">
+        <f t="shared" si="17"/>
         <v>0.00781 0.9625</v>
       </c>
-      <c r="M29" t="str">
-        <f>_xlfn.CONCAT(ROUND($F29/$B$2,5)," ",ROUND($G29/$C$2,5))</f>
+      <c r="M30" t="str">
+        <f t="shared" si="18"/>
         <v>0.14844 0.975</v>
       </c>
-      <c r="N29" t="str">
-        <f>_xlfn.CONCAT(ROUND($H29/$B$2,5)," ",ROUND($I29/$C$2,5))</f>
+      <c r="N30" t="str">
+        <f t="shared" si="19"/>
         <v>0.28906 0.9875</v>
       </c>
     </row>

--- a/_src/Sizes.xlsx
+++ b/_src/Sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\martin\dev\games\EmulationStation-DE\.emulationstation\themes\mochico\_src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A745179-20B6-4962-AC8D-9A4821D3C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8380EAD-3A9C-4D47-855C-D05406E70E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{A4AB701A-3A3C-4759-B48E-BD397EEEDDAB}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>Games: art</t>
   </si>
   <si>
-    <t>Games: background</t>
-  </si>
-  <si>
     <t>Games: art outer</t>
   </si>
   <si>
@@ -149,10 +146,13 @@
     <t>Games: badges</t>
   </si>
   <si>
-    <t>Games: controller</t>
-  </si>
-  <si>
     <t>Games: title</t>
+  </si>
+  <si>
+    <t>Games: controller badge</t>
+  </si>
+  <si>
+    <t>Games: system controller bg</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <f>$B$14-$B$16</f>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <f>$B$20-$B$4*2</f>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <f>$B$21</f>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <f>ROUND($B$24/3,0)</f>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <f>ROUND($B$24/3,0)</f>
@@ -1622,49 +1622,49 @@
         <v>35</v>
       </c>
       <c r="D26" s="2">
-        <f>$H$24-$B26</f>
-        <v>1007</v>
+        <f>$F$24-$B26/2</f>
+        <v>773.5</v>
       </c>
       <c r="E26" s="2">
         <f>$E$24</f>
         <v>645</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="12"/>
-        <v>1123.5</v>
+        <f>$D26+$B26/2</f>
+        <v>890</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="13"/>
+        <f>$E26+$C26/2</f>
         <v>662.5</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="14"/>
-        <v>1240</v>
+        <f>$D26+$B26</f>
+        <v>1006.5</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="15"/>
+        <f>$E26+$C26</f>
         <v>680</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="16"/>
+        <f>_xlfn.CONCAT(ROUND($B26/$B$2,5)," ",ROUND($C26/$C$2,5))</f>
         <v>0.18203 0.04375</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="17"/>
-        <v>0.78672 0.80625</v>
+        <f>_xlfn.CONCAT(ROUND($D26/$B$2,5)," ",ROUND($E26/$C$2,5))</f>
+        <v>0.6043 0.80625</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="18"/>
-        <v>0.87773 0.82813</v>
+        <f>_xlfn.CONCAT(ROUND($F26/$B$2,5)," ",ROUND($G26/$C$2,5))</f>
+        <v>0.69531 0.82813</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="19"/>
-        <v>0.96875 0.85</v>
+        <f>_xlfn.CONCAT(ROUND($H26/$B$2,5)," ",ROUND($I26/$C$2,5))</f>
+        <v>0.78633 0.85</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <f>ROUND($B$24/3,0)</f>
@@ -1675,8 +1675,8 @@
         <v>35</v>
       </c>
       <c r="D27" s="2">
-        <f>$F$24-$B27/2</f>
-        <v>773.5</v>
+        <f>$H$24-$B27</f>
+        <v>1007</v>
       </c>
       <c r="E27" s="2">
         <f>$E$24</f>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="12"/>
-        <v>890</v>
+        <v>1123.5</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="13"/>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="14"/>
-        <v>1006.5</v>
+        <v>1240</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="15"/>
@@ -1704,24 +1704,24 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" si="17"/>
-        <v>0.6043 0.80625</v>
+        <v>0.78672 0.80625</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="18"/>
-        <v>0.69531 0.82813</v>
+        <v>0.87773 0.82813</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="19"/>
-        <v>0.78633 0.85</v>
+        <v>0.96875 0.85</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <f>$B$21-$B$5*2</f>
-        <v>620</v>
+        <f>$B$21-$B$5*6</f>
+        <v>460</v>
       </c>
       <c r="C28">
         <f>$C$21-$C$5*2</f>
@@ -1731,7 +1731,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="1">
         <f t="shared" si="12"/>
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="13"/>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="14"/>
-        <v>620</v>
+        <v>460</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="15"/>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="16"/>
-        <v>0.48438 0.65</v>
+        <v>0.35938 0.65</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="17"/>
@@ -1755,16 +1755,16 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="18"/>
-        <v>0.24219 0.325</v>
+        <v>0.17969 0.325</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="19"/>
-        <v>0.48438 0.65</v>
+        <v>0.35938 0.65</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <f>$B$21</f>
